--- a/src/test/resources/2007.xlsx
+++ b/src/test/resources/2007.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9372"/>
+    <workbookView windowWidth="28000" windowHeight="11000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
   <si>
     <t>订单号</t>
   </si>
@@ -566,36 +566,6 @@
   </si>
   <si>
     <t>156162329668547</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>2019-06-26 15:11:48.0</t>
-  </si>
-  <si>
-    <t>测试26</t>
-  </si>
-  <si>
-    <t>156153328600265</t>
-  </si>
-  <si>
-    <t>2019-06-26 15:47:29.0</t>
-  </si>
-  <si>
-    <t>156162995765105</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>2019-06-28 08:38:45.0</t>
-  </si>
-  <si>
-    <t>156168318733431</t>
-  </si>
-  <si>
-    <t>2019-06-28 08:53:33.0</t>
   </si>
 </sst>
 </file>
@@ -605,8 +575,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -624,22 +594,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,15 +609,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,17 +660,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -714,32 +699,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,15 +721,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,7 +759,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,25 +801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,13 +813,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,25 +879,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,31 +909,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,49 +933,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,6 +968,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1013,15 +1001,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1033,21 +1012,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,161 +1051,167 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1258,54 +1228,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1572,42 +1542,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AH26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="24.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="17.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="10.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="24.2211538461538" customWidth="1"/>
+    <col min="3" max="3" width="17.5576923076923" customWidth="1"/>
+    <col min="4" max="4" width="10.1153846153846" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="17.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="17.5576923076923" customWidth="1"/>
     <col min="7" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="17.5555555555556" customWidth="1"/>
-    <col min="10" max="10" width="36.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="19.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="10.1111111111111" customWidth="1"/>
-    <col min="13" max="13" width="11.8888888888889" customWidth="1"/>
-    <col min="14" max="14" width="8.66666666666667" customWidth="1"/>
-    <col min="15" max="15" width="5.88888888888889" customWidth="1"/>
-    <col min="16" max="16" width="8.66666666666667" customWidth="1"/>
-    <col min="17" max="18" width="10.1111111111111" customWidth="1"/>
-    <col min="19" max="19" width="15.2222222222222" customWidth="1"/>
-    <col min="20" max="20" width="18.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="17.5576923076923" customWidth="1"/>
+    <col min="10" max="10" width="36.6634615384615" customWidth="1"/>
+    <col min="11" max="11" width="19.6634615384615" customWidth="1"/>
+    <col min="12" max="12" width="10.1153846153846" customWidth="1"/>
+    <col min="13" max="13" width="11.8846153846154" customWidth="1"/>
+    <col min="14" max="14" width="8.66346153846154" customWidth="1"/>
+    <col min="15" max="15" width="5.88461538461539" customWidth="1"/>
+    <col min="16" max="16" width="8.66346153846154" customWidth="1"/>
+    <col min="17" max="18" width="10.1153846153846" customWidth="1"/>
+    <col min="19" max="19" width="15.2211538461538" customWidth="1"/>
+    <col min="20" max="20" width="18.4423076923077" customWidth="1"/>
     <col min="21" max="23" width="16" customWidth="1"/>
-    <col min="24" max="24" width="24.2222222222222" customWidth="1"/>
-    <col min="25" max="25" width="18.4444444444444" customWidth="1"/>
+    <col min="24" max="24" width="24.2211538461538" customWidth="1"/>
+    <col min="25" max="25" width="18.4423076923077" customWidth="1"/>
     <col min="26" max="28" width="16" customWidth="1"/>
-    <col min="29" max="29" width="24.2222222222222" customWidth="1"/>
-    <col min="30" max="30" width="18.4444444444444" customWidth="1"/>
+    <col min="29" max="29" width="24.2211538461538" customWidth="1"/>
+    <col min="30" max="30" width="18.4423076923077" customWidth="1"/>
     <col min="31" max="33" width="16" customWidth="1"/>
-    <col min="34" max="34" width="24.2222222222222" customWidth="1"/>
+    <col min="34" max="34" width="24.2211538461538" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -4314,112 +4284,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
-      <c r="A27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B27" t="s">
-        <v>185</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" t="s">
-        <v>133</v>
-      </c>
-      <c r="G27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" t="s">
-        <v>108</v>
-      </c>
-      <c r="M27" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" t="s">
-        <v>134</v>
-      </c>
-      <c r="O27" t="s">
-        <v>48</v>
-      </c>
-      <c r="P27" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>138</v>
-      </c>
-      <c r="R27" t="s">
-        <v>51</v>
-      </c>
-      <c r="S27" t="s">
-        <v>52</v>
-      </c>
-      <c r="T27" t="s">
-        <v>187</v>
-      </c>
-      <c r="U27" t="s">
-        <v>159</v>
-      </c>
-      <c r="V27" t="s">
-        <v>100</v>
-      </c>
-      <c r="W27" t="s">
-        <v>56</v>
-      </c>
-      <c r="X27" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>193</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>